--- a/diagram_data/2016_diagram_data.xlsx
+++ b/diagram_data/2016_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,1686 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P9_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P20_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P21_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P10_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P15_Bishop &amp; Waring_2016_HR_Becoming Hybrid.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P20_Chan &amp; Anteby_2016_ASQ_Task Segregation as a Mechanism for Within Job Inequality.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_Colbert, Bono &amp; Purvanova_2016_AMJ_Flourishing Via Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F5_P31_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P13_Deken, Carlile, Berends &amp; Lauche_2016_OrgSci_Generating Novelty through Interdependent Routines.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P4_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F8_P31_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P8_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P18_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P4_Martin_2016_AMJ_Stories about Values and Valuable Storeis.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P20_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.png</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P12_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P14_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P8_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P10_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F4_P18_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P18_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P8_Whittle, Mueller, Gilchrist &amp; Lenney_2016_OrgStudies_Sensemaking Sense-Censoring and Strategic Inaction.png</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P15_York_2016_J Management Studies _ Exploring Environmental Entrepreneurship  Identity Coupling  Venture Goals  and.png</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P16_Hennekam_2016_HR_Identity Transition during Pregnancy.png</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P22_Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.png</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Neeley &amp; Dumas_2016_AMJ_Unearned Status Gain Evidence from a Global Language Mandate.png</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P19_Risi_2016_J Management Studies_ Reconsidering the  Symmetry  Between Institutionalization and Professionalization  The.png</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.png</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P6_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P6_Sele &amp; Grand_2016_OrgSci_Unpacking the Dynamics of Ecologies of Routines.png</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P6_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P16_Tracey_2016_OrgSci_Spreading the Word.png</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.png</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/diagram_data/2016_diagram_data.xlsx
+++ b/diagram_data/2016_diagram_data.xlsx
@@ -543,7 +543,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="31.290714285714284" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -639,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -882,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -1055,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -1081,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1211,16 +1211,16 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
@@ -1263,16 +1263,16 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -1298,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -1318,13 +1318,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
@@ -1370,7 +1370,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>10</v>
@@ -1471,16 +1471,16 @@
         <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>9</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>10</v>
@@ -1520,10 +1520,10 @@
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>9</v>
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1610,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>9</v>
